--- a/Designacoes/Volunteers.xlsx
+++ b/Designacoes/Volunteers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Documents\jw2019\Designacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{616826BE-377A-4DE6-B2A0-F9B301F47E40}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668667F9-A5DC-4C4C-98BF-2921937A9BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
   <si>
     <t>Email</t>
   </si>
@@ -1208,6 +1208,12 @@
   </si>
   <si>
     <t>919661244 / 936867393</t>
+  </si>
+  <si>
+    <t>carlos.cms2006@gmail.com</t>
+  </si>
+  <si>
+    <t>catarinatoliveira@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -1585,19 +1591,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B394"/>
+  <dimension ref="A1:B396"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A395" sqref="A395"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
     <col min="1" max="1" width="26.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>337</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>932877256</v>
       </c>
@@ -1613,7 +1619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>911709077</v>
       </c>
@@ -1621,7 +1627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>963395323</v>
       </c>
@@ -1629,7 +1635,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>916265691</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>937920691</v>
       </c>
@@ -1645,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>919311670</v>
       </c>
@@ -1653,7 +1659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>938328745</v>
       </c>
@@ -1661,7 +1667,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>939683580</v>
       </c>
@@ -1669,7 +1675,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>933114080</v>
       </c>
@@ -1677,7 +1683,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>961926459</v>
       </c>
@@ -1685,7 +1691,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>960066254</v>
       </c>
@@ -1693,7 +1699,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>960116096</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>962640730</v>
       </c>
@@ -1709,7 +1715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15">
         <v>961853376</v>
       </c>
@@ -1717,7 +1723,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16">
         <v>964375414</v>
       </c>
@@ -1725,7 +1731,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17">
         <v>964688017</v>
       </c>
@@ -1733,7 +1739,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18">
         <v>962674460</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19">
         <v>968818386</v>
       </c>
@@ -1749,7 +1755,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20">
         <v>447534244204</v>
       </c>
@@ -1757,7 +1763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21">
         <v>936884461</v>
       </c>
@@ -1765,7 +1771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A22">
         <v>926832702</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A23">
         <v>965341796</v>
       </c>
@@ -1781,7 +1787,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A24">
         <v>969031855</v>
       </c>
@@ -1789,7 +1795,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A25">
         <v>33663815761</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A26">
         <v>933315975</v>
       </c>
@@ -1805,7 +1811,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A27">
         <v>932306826</v>
       </c>
@@ -1813,7 +1819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A28">
         <v>919224332</v>
       </c>
@@ -1821,7 +1827,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A29">
         <v>913038477</v>
       </c>
@@ -1829,7 +1835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A30">
         <v>964334243</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A31">
         <v>961296939</v>
       </c>
@@ -1845,7 +1851,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A32">
         <v>960298665</v>
       </c>
@@ -1853,7 +1859,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A33">
         <v>938829862</v>
       </c>
@@ -1861,7 +1867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A34">
         <v>964446833</v>
       </c>
@@ -1869,7 +1875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A35">
         <v>933534221</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A36">
         <v>919211421</v>
       </c>
@@ -1885,7 +1891,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A37">
         <v>934458316</v>
       </c>
@@ -1893,7 +1899,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A38">
         <v>965051371</v>
       </c>
@@ -1901,7 +1907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A39">
         <v>939880012</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A40">
         <v>934052431</v>
       </c>
@@ -1917,7 +1923,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A41">
         <v>919579679</v>
       </c>
@@ -1925,7 +1931,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A42">
         <v>916221573</v>
       </c>
@@ -1933,7 +1939,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A43">
         <v>965854580</v>
       </c>
@@ -1941,7 +1947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A44">
         <v>964599235</v>
       </c>
@@ -1949,7 +1955,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A45">
         <v>913856726</v>
       </c>
@@ -1957,7 +1963,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A46">
         <v>968744694</v>
       </c>
@@ -1965,7 +1971,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A47">
         <v>917948997</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A48">
         <v>965853253</v>
       </c>
@@ -1981,7 +1987,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A49">
         <v>912468662</v>
       </c>
@@ -1989,7 +1995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A50">
         <v>919902430</v>
       </c>
@@ -1997,7 +2003,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A51">
         <v>919576429</v>
       </c>
@@ -2005,7 +2011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A52">
         <v>962687523</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A53">
         <v>969401576</v>
       </c>
@@ -2021,7 +2027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A54">
         <v>913932397</v>
       </c>
@@ -2029,7 +2035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A55">
         <v>918278499</v>
       </c>
@@ -2037,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A56">
         <v>962601281</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A57">
         <v>963806219</v>
       </c>
@@ -2053,7 +2059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A58">
         <v>968194024</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A59" t="s">
         <v>395</v>
       </c>
@@ -2069,7 +2075,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A60">
         <v>960238487</v>
       </c>
@@ -2077,7 +2083,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A61">
         <v>932339796</v>
       </c>
@@ -2085,7 +2091,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A62">
         <v>968251094</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A63">
         <v>969062810</v>
       </c>
@@ -2101,7 +2107,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>966439399</v>
       </c>
@@ -2109,7 +2115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A65">
         <v>938680889</v>
       </c>
@@ -2117,7 +2123,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A66">
         <v>934481057</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A67">
         <v>918533355</v>
       </c>
@@ -2133,7 +2139,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A68">
         <v>917138286</v>
       </c>
@@ -2141,7 +2147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A69">
         <v>917777047</v>
       </c>
@@ -2149,7 +2155,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A70">
         <v>969772188</v>
       </c>
@@ -2157,7 +2163,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A71">
         <v>961179346</v>
       </c>
@@ -2165,7 +2171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A72">
         <v>914110727</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A73">
         <v>966059297</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A74">
         <v>968186527</v>
       </c>
@@ -2189,7 +2195,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A75">
         <v>925126621</v>
       </c>
@@ -2197,7 +2203,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A76">
         <v>962086794</v>
       </c>
@@ -2205,7 +2211,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A77">
         <v>919335586</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A78">
         <v>964195440</v>
       </c>
@@ -2221,7 +2227,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A79">
         <v>915665445</v>
       </c>
@@ -2229,7 +2235,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A80">
         <v>961464158</v>
       </c>
@@ -2237,7 +2243,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A81">
         <v>966074066</v>
       </c>
@@ -2245,7 +2251,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A82">
         <v>914659445</v>
       </c>
@@ -2253,7 +2259,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A83">
         <v>936812988</v>
       </c>
@@ -2261,7 +2267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A84">
         <v>918798722</v>
       </c>
@@ -2269,7 +2275,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A85">
         <v>915129816</v>
       </c>
@@ -2277,7 +2283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A86">
         <v>913016814</v>
       </c>
@@ -2285,7 +2291,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A87">
         <v>912732768</v>
       </c>
@@ -2293,7 +2299,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A88">
         <v>966440620</v>
       </c>
@@ -2301,7 +2307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A89">
         <v>913204515</v>
       </c>
@@ -2309,7 +2315,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A90">
         <v>964686866</v>
       </c>
@@ -2317,7 +2323,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A91">
         <v>965412283</v>
       </c>
@@ -2325,7 +2331,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A92">
         <v>965229777</v>
       </c>
@@ -2333,7 +2339,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A93">
         <v>962122240</v>
       </c>
@@ -2341,7 +2347,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A94">
         <v>936064219</v>
       </c>
@@ -2349,7 +2355,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A95">
         <v>937614681</v>
       </c>
@@ -2357,7 +2363,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A96">
         <v>934621373</v>
       </c>
@@ -2365,7 +2371,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A97">
         <v>939156417</v>
       </c>
@@ -2373,7 +2379,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A98">
         <v>963064954</v>
       </c>
@@ -2381,7 +2387,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A99">
         <v>919178298</v>
       </c>
@@ -2389,7 +2395,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A100">
         <v>917493592</v>
       </c>
@@ -2397,7 +2403,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A101">
         <v>911034336</v>
       </c>
@@ -2405,7 +2411,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A102">
         <v>938314657</v>
       </c>
@@ -2413,7 +2419,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A103">
         <v>918560027</v>
       </c>
@@ -2421,7 +2427,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A104">
         <v>910590685</v>
       </c>
@@ -2429,7 +2435,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A105">
         <v>968502630</v>
       </c>
@@ -2437,7 +2443,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A106">
         <v>912874800</v>
       </c>
@@ -2445,7 +2451,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A107">
         <v>964446999</v>
       </c>
@@ -2453,7 +2459,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A108">
         <v>963927167</v>
       </c>
@@ -2461,7 +2467,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A109">
         <v>927512658</v>
       </c>
@@ -2469,7 +2475,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A110">
         <v>925443914</v>
       </c>
@@ -2477,7 +2483,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A111">
         <v>919827199</v>
       </c>
@@ -2485,7 +2491,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A112">
         <v>911582767</v>
       </c>
@@ -2493,7 +2499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A113">
         <v>936638508</v>
       </c>
@@ -2501,7 +2507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A114">
         <v>964738273</v>
       </c>
@@ -2509,7 +2515,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A115">
         <v>919258108</v>
       </c>
@@ -2517,7 +2523,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A116">
         <v>967852243</v>
       </c>
@@ -2525,7 +2531,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A117">
         <v>967107597</v>
       </c>
@@ -2533,7 +2539,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A118">
         <v>911018384</v>
       </c>
@@ -2541,7 +2547,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A119">
         <v>919706888</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A120">
         <v>917511667</v>
       </c>
@@ -2557,7 +2563,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A121">
         <v>916915211</v>
       </c>
@@ -2565,7 +2571,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A122">
         <v>916184084</v>
       </c>
@@ -2573,7 +2579,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A123">
         <v>967919301</v>
       </c>
@@ -2581,7 +2587,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A124">
         <v>932787045</v>
       </c>
@@ -2589,7 +2595,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A125">
         <v>917807588</v>
       </c>
@@ -2597,7 +2603,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A126">
         <v>965111211</v>
       </c>
@@ -2605,7 +2611,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A127">
         <v>912087171</v>
       </c>
@@ -2613,7 +2619,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A128">
         <v>936858648</v>
       </c>
@@ -2621,7 +2627,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A129">
         <v>914433417</v>
       </c>
@@ -2629,7 +2635,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A130">
         <v>934784480</v>
       </c>
@@ -2637,7 +2643,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A131">
         <v>911000609</v>
       </c>
@@ -2645,7 +2651,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A132">
         <v>917053938</v>
       </c>
@@ -2653,7 +2659,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A133">
         <v>914070955</v>
       </c>
@@ -2661,7 +2667,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A134">
         <v>968992628</v>
       </c>
@@ -2669,7 +2675,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A135">
         <v>961758907</v>
       </c>
@@ -2677,7 +2683,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A136">
         <v>934643376</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A137">
         <v>936104101</v>
       </c>
@@ -2693,7 +2699,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A138">
         <v>965042668</v>
       </c>
@@ -2701,7 +2707,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A139">
         <v>962346469</v>
       </c>
@@ -2709,7 +2715,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>968477767</v>
       </c>
@@ -2717,7 +2723,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>939645881</v>
       </c>
@@ -2725,7 +2731,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>968633016</v>
       </c>
@@ -2733,7 +2739,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>966803750</v>
       </c>
@@ -2741,7 +2747,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>966183349</v>
       </c>
@@ -2749,7 +2755,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>938217261</v>
       </c>
@@ -2757,7 +2763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>916390808</v>
       </c>
@@ -2765,7 +2771,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>937203297</v>
       </c>
@@ -2773,7 +2779,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>926472913</v>
       </c>
@@ -2781,7 +2787,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>927374513</v>
       </c>
@@ -2789,7 +2795,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>915473969</v>
       </c>
@@ -2797,7 +2803,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>918350048</v>
       </c>
@@ -2805,7 +2811,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>926240548</v>
       </c>
@@ -2813,7 +2819,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>912098011</v>
       </c>
@@ -2821,7 +2827,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>917456594</v>
       </c>
@@ -2829,7 +2835,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>933434925</v>
       </c>
@@ -2837,7 +2843,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>34658907384</v>
       </c>
@@ -2845,7 +2851,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>420723178473</v>
       </c>
@@ -2853,7 +2859,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>968354304</v>
       </c>
@@ -2861,7 +2867,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>966519626</v>
       </c>
@@ -2869,7 +2875,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>967698125</v>
       </c>
@@ -2877,7 +2883,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>966428918</v>
       </c>
@@ -2885,7 +2891,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>924071601</v>
       </c>
@@ -2893,7 +2899,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>919708185</v>
       </c>
@@ -2901,7 +2907,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>969418364</v>
       </c>
@@ -2909,7 +2915,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>924193823</v>
       </c>
@@ -2917,7 +2923,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>965750335</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>967503896</v>
       </c>
@@ -2933,7 +2939,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>912193312</v>
       </c>
@@ -2941,7 +2947,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>939404038</v>
       </c>
@@ -2949,7 +2955,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>932349395</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>917658854</v>
       </c>
@@ -2965,7 +2971,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>968701861</v>
       </c>
@@ -2973,7 +2979,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>967475701</v>
       </c>
@@ -2981,7 +2987,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>963036547</v>
       </c>
@@ -2989,7 +2995,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>916111621</v>
       </c>
@@ -2997,7 +3003,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>916029193</v>
       </c>
@@ -3005,7 +3011,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>962768462</v>
       </c>
@@ -3013,7 +3019,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>917803570</v>
       </c>
@@ -3021,7 +3027,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>966755410</v>
       </c>
@@ -3029,7 +3035,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>913505664</v>
       </c>
@@ -3037,7 +3043,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>926525422</v>
       </c>
@@ -3045,7 +3051,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>932433817</v>
       </c>
@@ -3053,7 +3059,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>962987524</v>
       </c>
@@ -3061,7 +3067,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>965018822</v>
       </c>
@@ -3069,7 +3075,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>968508086</v>
       </c>
@@ -3077,7 +3083,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>927975690</v>
       </c>
@@ -3085,7 +3091,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>910588824</v>
       </c>
@@ -3093,7 +3099,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>917785509</v>
       </c>
@@ -3101,7 +3107,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>937522027</v>
       </c>
@@ -3109,7 +3115,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>937766424</v>
       </c>
@@ -3117,7 +3123,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>917439783</v>
       </c>
@@ -3125,7 +3131,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>927914153</v>
       </c>
@@ -3133,7 +3139,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>936305990</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>967783643</v>
       </c>
@@ -3149,7 +3155,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>965625622</v>
       </c>
@@ -3157,7 +3163,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>918710171</v>
       </c>
@@ -3165,7 +3171,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>932343039</v>
       </c>
@@ -3173,7 +3179,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>961483953</v>
       </c>
@@ -3181,7 +3187,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>962813822</v>
       </c>
@@ -3189,7 +3195,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>917947154</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>960067469</v>
       </c>
@@ -3205,7 +3211,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>961789577</v>
       </c>
@@ -3213,7 +3219,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>963571054</v>
       </c>
@@ -3221,7 +3227,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>939394725</v>
       </c>
@@ -3229,7 +3235,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>913149172</v>
       </c>
@@ -3237,7 +3243,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>351939817258</v>
       </c>
@@ -3245,7 +3251,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>924153448</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>916964615</v>
       </c>
@@ -3261,7 +3267,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>969408661</v>
       </c>
@@ -3269,7 +3275,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>925306271</v>
       </c>
@@ -3277,7 +3283,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>968655990</v>
       </c>
@@ -3285,7 +3291,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>965705050</v>
       </c>
@@ -3293,7 +3299,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>928031563</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>34651129110</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>916314907</v>
       </c>
@@ -3317,7 +3323,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>934368833</v>
       </c>
@@ -3325,7 +3331,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>914270699</v>
       </c>
@@ -3333,7 +3339,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>916354964</v>
       </c>
@@ -3341,7 +3347,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>4407751197998</v>
       </c>
@@ -3349,7 +3355,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>925826421</v>
       </c>
@@ -3357,7 +3363,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>962953143</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>968485022</v>
       </c>
@@ -3373,7 +3379,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>968013669</v>
       </c>
@@ -3381,7 +3387,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>961450663</v>
       </c>
@@ -3389,7 +3395,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>933478639</v>
       </c>
@@ -3397,7 +3403,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>962840254</v>
       </c>
@@ -3405,7 +3411,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>935959669</v>
       </c>
@@ -3413,7 +3419,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>924201516</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>938577485</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>927485641</v>
       </c>
@@ -3437,7 +3443,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>937878201</v>
       </c>
@@ -3445,7 +3451,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>963567049</v>
       </c>
@@ -3453,7 +3459,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>917474696</v>
       </c>
@@ -3461,7 +3467,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>926612397</v>
       </c>
@@ -3469,7 +3475,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>924421600</v>
       </c>
@@ -3477,7 +3483,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>915712801</v>
       </c>
@@ -3485,7 +3491,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>935739869</v>
       </c>
@@ -3493,7 +3499,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>916072059</v>
       </c>
@@ -3501,7 +3507,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>917192263</v>
       </c>
@@ -3509,7 +3515,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>961950376</v>
       </c>
@@ -3517,7 +3523,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>938730147</v>
       </c>
@@ -3525,7 +3531,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>960069051</v>
       </c>
@@ -3533,7 +3539,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>969862403</v>
       </c>
@@ -3541,7 +3547,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>963834802</v>
       </c>
@@ -3549,7 +3555,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>961641528</v>
       </c>
@@ -3557,7 +3563,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>927749786</v>
       </c>
@@ -3565,7 +3571,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>962196333</v>
       </c>
@@ -3573,7 +3579,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>935076094</v>
       </c>
@@ -3581,7 +3587,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>915583500</v>
       </c>
@@ -3589,7 +3595,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>965602808</v>
       </c>
@@ -3597,7 +3603,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>917833213</v>
       </c>
@@ -3605,7 +3611,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>968314879</v>
       </c>
@@ -3613,7 +3619,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>967166876</v>
       </c>
@@ -3621,7 +3627,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>939300300</v>
       </c>
@@ -3629,7 +3635,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>963096906</v>
       </c>
@@ -3637,7 +3643,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>913184900</v>
       </c>
@@ -3645,7 +3651,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>965738010</v>
       </c>
@@ -3653,7 +3659,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>917938501</v>
       </c>
@@ -3661,7 +3667,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>964892068</v>
       </c>
@@ -3669,7 +3675,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>916085891</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>962052194</v>
       </c>
@@ -3685,7 +3691,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>969289370</v>
       </c>
@@ -3693,7 +3699,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>910469906</v>
       </c>
@@ -3701,7 +3707,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>962026855</v>
       </c>
@@ -3709,7 +3715,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>919467856</v>
       </c>
@@ -3717,7 +3723,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>937610179</v>
       </c>
@@ -3725,7 +3731,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>918865335</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>965000280</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>934932809</v>
       </c>
@@ -3749,7 +3755,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>916686028</v>
       </c>
@@ -3757,7 +3763,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>913819349</v>
       </c>
@@ -3765,7 +3771,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>938518203</v>
       </c>
@@ -3773,7 +3779,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>918422980</v>
       </c>
@@ -3781,7 +3787,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>968737885</v>
       </c>
@@ -3789,7 +3795,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>918262086</v>
       </c>
@@ -3797,7 +3803,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>965376504</v>
       </c>
@@ -3805,7 +3811,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>964004960</v>
       </c>
@@ -3813,7 +3819,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>910453294</v>
       </c>
@@ -3821,7 +3827,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>966329015</v>
       </c>
@@ -3829,7 +3835,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>915282827</v>
       </c>
@@ -3837,7 +3843,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>962693475</v>
       </c>
@@ -3845,7 +3851,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>919590050</v>
       </c>
@@ -3853,7 +3859,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>912686278</v>
       </c>
@@ -3861,7 +3867,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>936259378</v>
       </c>
@@ -3869,7 +3875,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>962521160</v>
       </c>
@@ -3877,7 +3883,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>916526868</v>
       </c>
@@ -3885,7 +3891,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>912321949</v>
       </c>
@@ -3893,7 +3899,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>917981907</v>
       </c>
@@ -3901,7 +3907,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>917430385</v>
       </c>
@@ -3909,7 +3915,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>931133969</v>
       </c>
@@ -3917,7 +3923,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>964687265</v>
       </c>
@@ -3925,7 +3931,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>939890541</v>
       </c>
@@ -3933,7 +3939,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>917472882</v>
       </c>
@@ -3941,7 +3947,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>965828243</v>
       </c>
@@ -3949,7 +3955,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>965766175</v>
       </c>
@@ -3957,7 +3963,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>910024261</v>
       </c>
@@ -3965,7 +3971,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>927364864</v>
       </c>
@@ -3973,7 +3979,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>933908935</v>
       </c>
@@ -3981,7 +3987,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>963370788</v>
       </c>
@@ -3989,7 +3995,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>934547139</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>917834561</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>914344904</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>968608939</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>939501545</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>916103810</v>
       </c>
@@ -4037,7 +4043,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>938795449</v>
       </c>
@@ -4045,7 +4051,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>963503829</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>933351044</v>
       </c>
@@ -4061,7 +4067,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>917342461</v>
       </c>
@@ -4069,7 +4075,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>937052281</v>
       </c>
@@ -4077,7 +4083,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>966409196</v>
       </c>
@@ -4085,7 +4091,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>966217253</v>
       </c>
@@ -4093,7 +4099,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>934361589</v>
       </c>
@@ -4101,7 +4107,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>914324558</v>
       </c>
@@ -4109,7 +4115,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>965173670</v>
       </c>
@@ -4117,7 +4123,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>933270400</v>
       </c>
@@ -4125,7 +4131,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>936116933</v>
       </c>
@@ -4133,7 +4139,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>919618641</v>
       </c>
@@ -4141,7 +4147,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>935799191</v>
       </c>
@@ -4149,7 +4155,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>918404101</v>
       </c>
@@ -4157,7 +4163,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>960171466</v>
       </c>
@@ -4165,7 +4171,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>966385614</v>
       </c>
@@ -4173,7 +4179,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>916142339</v>
       </c>
@@ -4181,7 +4187,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>918316583</v>
       </c>
@@ -4189,7 +4195,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>910696071</v>
       </c>
@@ -4197,7 +4203,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>933270577</v>
       </c>
@@ -4205,7 +4211,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>961803777</v>
       </c>
@@ -4213,7 +4219,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>911076394</v>
       </c>
@@ -4221,7 +4227,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>965677396</v>
       </c>
@@ -4229,7 +4235,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>918457104</v>
       </c>
@@ -4237,7 +4243,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>936313666</v>
       </c>
@@ -4245,7 +4251,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>962476359</v>
       </c>
@@ -4253,7 +4259,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>925736352</v>
       </c>
@@ -4261,7 +4267,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>963919931</v>
       </c>
@@ -4269,7 +4275,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>938866752</v>
       </c>
@@ -4277,7 +4283,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>933958500</v>
       </c>
@@ -4285,7 +4291,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>932828299</v>
       </c>
@@ -4293,7 +4299,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A338" s="1">
         <v>913186991</v>
       </c>
@@ -4301,7 +4307,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A339" s="1">
         <v>919947370</v>
       </c>
@@ -4309,7 +4315,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A340" s="1">
         <v>925696492</v>
       </c>
@@ -4317,7 +4323,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A341" s="1">
         <v>964818890</v>
       </c>
@@ -4325,7 +4331,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A342" s="1">
         <v>963923699</v>
       </c>
@@ -4333,7 +4339,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A343" s="1">
         <v>962348657</v>
       </c>
@@ -4341,7 +4347,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A344" s="1">
         <v>918824747</v>
       </c>
@@ -4349,7 +4355,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A345" s="1">
         <v>938872923</v>
       </c>
@@ -4357,7 +4363,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A346" s="1">
         <v>964262473</v>
       </c>
@@ -4365,7 +4371,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A347" s="1">
         <v>934033769</v>
       </c>
@@ -4373,7 +4379,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A348" s="1">
         <v>916449397</v>
       </c>
@@ -4381,7 +4387,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A349" s="1">
         <v>937899163</v>
       </c>
@@ -4389,7 +4395,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A350" s="1">
         <v>917518596</v>
       </c>
@@ -4397,7 +4403,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A351" s="1">
         <v>915541145</v>
       </c>
@@ -4405,7 +4411,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A352" s="1">
         <v>938467917</v>
       </c>
@@ -4413,7 +4419,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A353" s="1">
         <v>914885117</v>
       </c>
@@ -4421,7 +4427,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A354" s="1">
         <v>962854635</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A355" s="1">
         <v>916560494</v>
       </c>
@@ -4437,7 +4443,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A356" s="1">
         <v>917474739</v>
       </c>
@@ -4445,7 +4451,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A357" s="1">
         <v>965771002</v>
       </c>
@@ -4453,7 +4459,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A358" s="1">
         <v>960130592</v>
       </c>
@@ -4461,7 +4467,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A359" s="1">
         <v>961094276</v>
       </c>
@@ -4469,7 +4475,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A360" s="1">
         <v>937459119</v>
       </c>
@@ -4477,7 +4483,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A361" s="1">
         <v>962780910</v>
       </c>
@@ -4485,7 +4491,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A362" s="1">
         <v>919937329</v>
       </c>
@@ -4493,7 +4499,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A363" s="1">
         <v>961366851</v>
       </c>
@@ -4501,7 +4507,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A364" s="1">
         <v>932680025</v>
       </c>
@@ -4509,7 +4515,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A365" s="1">
         <v>963677275</v>
       </c>
@@ -4517,7 +4523,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A366" s="1">
         <v>912900408</v>
       </c>
@@ -4525,7 +4531,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A367" s="1">
         <v>969634362</v>
       </c>
@@ -4533,7 +4539,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A368" s="1">
         <v>935851739</v>
       </c>
@@ -4541,7 +4547,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A369" s="1">
         <v>915945184</v>
       </c>
@@ -4549,7 +4555,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A370" s="1">
         <v>915554885</v>
       </c>
@@ -4557,7 +4563,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A371" s="1">
         <v>914997575</v>
       </c>
@@ -4565,7 +4571,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A372" s="1">
         <v>916439786</v>
       </c>
@@ -4573,7 +4579,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A373" s="1">
         <v>931376334</v>
       </c>
@@ -4581,7 +4587,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A374" s="1">
         <v>934678811</v>
       </c>
@@ -4589,7 +4595,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A375" s="1">
         <v>961930178</v>
       </c>
@@ -4597,7 +4603,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A376" s="1">
         <v>911872988</v>
       </c>
@@ -4605,7 +4611,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A377" s="1">
         <v>916901832</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A378" s="1">
         <v>962540311</v>
       </c>
@@ -4621,7 +4627,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A379" s="1">
         <v>926360001</v>
       </c>
@@ -4629,7 +4635,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A380" s="1">
         <v>917828761</v>
       </c>
@@ -4637,7 +4643,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A381" s="1">
         <v>931182102</v>
       </c>
@@ -4645,7 +4651,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A382" s="1">
         <v>913905411</v>
       </c>
@@ -4653,7 +4659,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A383" s="1">
         <v>969725469</v>
       </c>
@@ -4661,7 +4667,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A384" s="1">
         <v>933735253</v>
       </c>
@@ -4669,7 +4675,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A385" s="1">
         <v>916523872</v>
       </c>
@@ -4677,7 +4683,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A386" s="1">
         <v>967555990</v>
       </c>
@@ -4685,7 +4691,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A387" s="1">
         <v>933863786</v>
       </c>
@@ -4693,7 +4699,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A388" s="1">
         <v>967410299</v>
       </c>
@@ -4701,7 +4707,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A389" s="1">
         <v>918680000</v>
       </c>
@@ -4709,7 +4715,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A390" s="1">
         <v>918231486</v>
       </c>
@@ -4717,7 +4723,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A391" s="1">
         <v>961826895</v>
       </c>
@@ -4725,7 +4731,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A392" s="1">
         <v>935746448</v>
       </c>
@@ -4733,7 +4739,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A393" s="1">
         <v>926424868</v>
       </c>
@@ -4741,12 +4747,28 @@
         <v>393</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A394" s="1">
         <v>913269190</v>
       </c>
       <c r="B394" s="1" t="s">
         <v>394</v>
+      </c>
+    </row>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A395">
+        <v>930510000</v>
+      </c>
+      <c r="B395" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="396" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A396">
+        <v>914930923</v>
+      </c>
+      <c r="B396" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>

--- a/Designacoes/Volunteers.xlsx
+++ b/Designacoes/Volunteers.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gonca\Documents\jw2019\Designacoes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668667F9-A5DC-4C4C-98BF-2921937A9BE3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECDA3DE0-1E4E-420D-BA27-0C3275DC986F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9690" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="399">
   <si>
     <t>Email</t>
   </si>
@@ -1214,16 +1214,27 @@
   </si>
   <si>
     <t>catarinatoliveira@gmail.com</t>
+  </si>
+  <si>
+    <t>jessyerita@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1246,14 +1257,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1591,10 +1605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B396"/>
+  <dimension ref="A1:B397"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A382" workbookViewId="0">
-      <selection activeCell="A395" sqref="A395"/>
+      <selection activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -4771,7 +4785,18 @@
         <v>397</v>
       </c>
     </row>
+    <row r="397" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A397">
+        <v>965171576</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B397" r:id="rId1" xr:uid="{67BCA464-C5EC-4188-8213-B3D223D60AB0}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>